--- a/static_in_env/media_root/otchet_1 тур_Биология.xlsx
+++ b/static_in_env/media_root/otchet_1 тур_Биология.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t>Биология багыты боюнча</t>
   </si>
@@ -24,7 +24,7 @@
     <t>1 турда катышкандардын тизмеси</t>
   </si>
   <si>
-    <t>Кабыл алуу планы: 0</t>
+    <t>Кабыл алуу планы: 5</t>
   </si>
   <si>
     <t>N</t>
@@ -60,6 +60,21 @@
     <t>910050</t>
   </si>
   <si>
+    <t>210395</t>
+  </si>
+  <si>
+    <t>221604</t>
+  </si>
+  <si>
+    <t>380382</t>
+  </si>
+  <si>
+    <t>701089</t>
+  </si>
+  <si>
+    <t>930461</t>
+  </si>
+  <si>
     <t>Всего</t>
   </si>
   <si>
@@ -121,6 +136,34 @@
   </si>
   <si>
     <t>0700214356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910050125053061042000000035BFCh_x000D_
+</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>930461143068000065000000000Y2</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>380382134079000042000000000B2</t>
+  </si>
+  <si>
+    <t>701089160065000046000000000B2</t>
+  </si>
+  <si>
+    <t>210395169065000039000000000R2</t>
+  </si>
+  <si>
+    <t>221604159083072053000000000R2</t>
   </si>
   <si>
     <t>Идент.</t>
@@ -548,7 +591,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,14 +760,30 @@
       <c r="E7" s="1">
         <v>178</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1">
+        <v>125</v>
+      </c>
+      <c r="H7" s="1">
+        <v>53</v>
+      </c>
+      <c r="I7" s="1">
+        <v>178</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1">
+        <v>143</v>
+      </c>
+      <c r="L7" s="1">
+        <v>68</v>
+      </c>
+      <c r="M7" s="1">
+        <v>211</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -739,21 +798,29 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>169</v>
+      </c>
+      <c r="D8" s="1">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1">
+        <v>234</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="G8" s="1">
         <v>125</v>
       </c>
-      <c r="D8" s="1">
+      <c r="H8" s="1">
         <v>53</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="1">
         <v>178</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -767,85 +834,159 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="11" customHeight="1">
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
+    <row r="9" spans="1:21" ht="11" customHeight="1">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>159</v>
+      </c>
+      <c r="D9" s="1">
+        <v>83</v>
+      </c>
+      <c r="E9" s="1">
+        <v>242</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
+        <v>134</v>
+      </c>
+      <c r="H9" s="1">
+        <v>79</v>
+      </c>
+      <c r="I9" s="1">
+        <v>213</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="11" customHeight="1">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>160</v>
+      </c>
+      <c r="H10" s="1">
+        <v>65</v>
+      </c>
+      <c r="I10" s="1">
+        <v>225</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="11" customHeight="1">
       <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="11" customHeight="1">
+      <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="11" customHeight="1">
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="11" customHeight="1">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1">
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
         <v>0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="1">
+      <c r="N16" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -860,16 +1001,16 @@
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:Q5"/>
     <mergeCell ref="R5:U5"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="N16:O16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -877,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -894,34 +1035,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -929,22 +1070,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H2" s="6">
         <v>125</v>
@@ -961,22 +1102,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H3" s="6">
         <v>125</v>
@@ -986,6 +1127,198 @@
       </c>
       <c r="J3" s="6">
         <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6">
+        <v>125</v>
+      </c>
+      <c r="I4" s="6">
+        <v>42</v>
+      </c>
+      <c r="J4" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="6">
+        <v>143</v>
+      </c>
+      <c r="I5" s="6">
+        <v>65</v>
+      </c>
+      <c r="J5" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6">
+        <v>134</v>
+      </c>
+      <c r="I6" s="6">
+        <v>42</v>
+      </c>
+      <c r="J6" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="6">
+        <v>160</v>
+      </c>
+      <c r="I7" s="6">
+        <v>46</v>
+      </c>
+      <c r="J7" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="6">
+        <v>169</v>
+      </c>
+      <c r="I8" s="6">
+        <v>39</v>
+      </c>
+      <c r="J8" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="6">
+        <v>159</v>
+      </c>
+      <c r="I9" s="6">
+        <v>53</v>
+      </c>
+      <c r="J9" s="6">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1007,25 +1340,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="11" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="11" customHeight="1">
@@ -1045,10 +1378,10 @@
         <v>178</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
